--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -593,10 +605,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -640,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -686,28 +698,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -998,10 +1010,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1045,28 +1057,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1091,28 +1103,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1461,10 +1473,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1508,28 +1520,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1554,28 +1566,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1837,10 +1849,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1884,28 +1896,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1930,28 +1942,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2329,10 +2341,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2376,28 +2388,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2422,28 +2434,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2647,10 +2659,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2694,28 +2706,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2740,28 +2752,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2907,10 +2919,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2954,28 +2966,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3000,28 +3012,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3167,10 +3179,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="J105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3214,28 +3226,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3260,28 +3272,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3427,10 +3439,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="J114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3474,28 +3486,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3520,28 +3532,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3687,10 +3699,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3734,28 +3746,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3780,28 +3792,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3976,10 +3988,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="J133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4023,28 +4035,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4069,28 +4081,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4236,10 +4248,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
+      <c r="J142" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="2" t="s">
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4283,28 +4295,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4329,28 +4341,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4496,10 +4508,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="J151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4543,28 +4555,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4589,28 +4601,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4756,10 +4768,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
+      <c r="J160" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4803,28 +4815,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4849,28 +4861,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5016,10 +5028,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
+      <c r="J169" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5063,28 +5075,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5109,28 +5121,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5276,10 +5288,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
+      <c r="J178" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K178" s="2" t="s">
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5323,28 +5335,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5369,28 +5381,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5449,10 +5461,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
+      <c r="J184" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K184" s="2" t="s">
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5496,28 +5508,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5542,28 +5554,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5622,10 +5634,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
+      <c r="J190" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K190" s="2" t="s">
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5669,28 +5681,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5715,28 +5727,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5795,10 +5807,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
+      <c r="J196" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -605,10 +653,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -652,28 +700,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="4">
+      <c r="A18" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="C18" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="4">
+      <c r="D18" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -698,28 +746,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="4">
+      <c r="I20" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1010,10 +1058,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1057,28 +1105,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="4">
+      <c r="A32" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="4">
+      <c r="C32" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D32" t="s" s="4">
+      <c r="D32" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="4">
+      <c r="G32" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="4">
+      <c r="H32" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1103,28 +1151,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="4">
+      <c r="C34" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="4">
+      <c r="D34" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="4">
+      <c r="I34" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1473,10 +1521,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1520,28 +1568,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="4">
+      <c r="A48" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="4">
+      <c r="B48" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="4">
+      <c r="C48" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="4">
+      <c r="D48" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="4">
+      <c r="E48" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="4">
+      <c r="F48" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="4">
+      <c r="G48" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="4">
+      <c r="H48" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1566,28 +1614,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="4">
+      <c r="C50" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="4">
+      <c r="D50" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="4">
+      <c r="I50" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1849,10 +1897,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="J59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1896,28 +1944,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="4">
+      <c r="A61" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="D61" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1942,28 +1990,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="D63" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="4">
+      <c r="G63" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="4">
+      <c r="H63" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="4">
+      <c r="I63" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2341,10 +2389,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="J76" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="K76" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2388,28 +2436,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="4">
+      <c r="A78" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="4">
+      <c r="C78" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D78" t="s" s="4">
+      <c r="D78" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="4">
+      <c r="G78" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="4">
+      <c r="H78" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2434,28 +2482,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="4">
+      <c r="B80" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="4">
+      <c r="C80" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="4">
+      <c r="D80" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="4">
+      <c r="E80" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="4">
+      <c r="F80" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="4">
+      <c r="G80" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="4">
+      <c r="H80" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="4">
+      <c r="I80" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2659,10 +2707,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="4" t="s">
+      <c r="J87" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="K87" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2706,28 +2754,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="4">
+      <c r="A89" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="4">
+      <c r="C89" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="4">
+      <c r="D89" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2752,28 +2800,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="4">
+      <c r="C91" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="4">
+      <c r="D91" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="4">
+      <c r="E91" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="4">
+      <c r="F91" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="4">
+      <c r="G91" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="4">
+      <c r="H91" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="4">
+      <c r="I91" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2919,10 +2967,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J96" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="K96" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2966,28 +3014,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="4">
+      <c r="A98" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="4">
+      <c r="G98" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="4">
+      <c r="H98" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3012,28 +3060,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="4">
+      <c r="C100" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="4">
+      <c r="D100" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="4">
+      <c r="E100" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="4">
+      <c r="F100" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="4">
+      <c r="G100" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="4">
+      <c r="H100" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="4">
+      <c r="I100" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3179,10 +3227,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="4" t="s">
+      <c r="J105" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="4" t="s">
+      <c r="K105" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3226,28 +3274,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="4">
+      <c r="A107" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="4">
+      <c r="B107" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="4">
+      <c r="C107" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="4">
+      <c r="D107" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="4">
+      <c r="E107" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="4">
+      <c r="F107" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="4">
+      <c r="G107" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="4">
+      <c r="H107" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3272,28 +3320,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="4">
+      <c r="B109" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="4">
+      <c r="C109" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="4">
+      <c r="D109" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="4">
+      <c r="E109" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="4">
+      <c r="F109" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="4">
+      <c r="G109" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="4">
+      <c r="H109" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="4">
+      <c r="I109" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3439,10 +3487,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="4" t="s">
+      <c r="J114" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K114" s="4" t="s">
+      <c r="K114" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3486,28 +3534,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="4">
+      <c r="A116" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="4">
+      <c r="C116" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D116" t="s" s="4">
+      <c r="D116" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="4">
+      <c r="G116" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="4">
+      <c r="H116" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3532,28 +3580,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="4">
+      <c r="B118" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="4">
+      <c r="C118" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="4">
+      <c r="D118" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="4">
+      <c r="E118" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="4">
+      <c r="F118" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="4">
+      <c r="G118" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="4">
+      <c r="H118" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="4">
+      <c r="I118" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3699,10 +3747,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="4" t="s">
+      <c r="J123" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="4" t="s">
+      <c r="K123" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3746,28 +3794,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="4">
+      <c r="A125" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="4">
+      <c r="B125" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="4">
+      <c r="C125" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="4">
+      <c r="D125" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="4">
+      <c r="E125" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="4">
+      <c r="F125" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="4">
+      <c r="G125" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="4">
+      <c r="H125" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3792,28 +3840,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="4">
+      <c r="B127" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="4">
+      <c r="C127" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="4">
+      <c r="D127" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="4">
+      <c r="E127" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="4">
+      <c r="F127" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="4">
+      <c r="G127" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="4">
+      <c r="H127" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="4">
+      <c r="I127" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3988,10 +4036,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="4" t="s">
+      <c r="J133" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="4" t="s">
+      <c r="K133" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4035,28 +4083,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="4">
+      <c r="A135" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="4">
+      <c r="C135" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="4">
+      <c r="D135" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="4">
+      <c r="G135" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="4">
+      <c r="H135" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4081,28 +4129,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="4">
+      <c r="B137" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="4">
+      <c r="C137" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="4">
+      <c r="D137" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="4">
+      <c r="E137" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="4">
+      <c r="F137" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="4">
+      <c r="G137" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="4">
+      <c r="H137" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="4">
+      <c r="I137" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4248,10 +4296,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="4" t="s">
+      <c r="J142" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="4" t="s">
+      <c r="K142" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4295,28 +4343,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="4">
+      <c r="A144" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="4">
+      <c r="B144" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="4">
+      <c r="C144" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="4">
+      <c r="D144" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="4">
+      <c r="E144" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="4">
+      <c r="F144" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="4">
+      <c r="G144" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="4">
+      <c r="H144" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4341,28 +4389,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="4">
+      <c r="C146" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="4">
+      <c r="D146" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="4">
+      <c r="I146" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4508,10 +4556,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="4" t="s">
+      <c r="J151" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="4" t="s">
+      <c r="K151" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4555,28 +4603,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="4">
+      <c r="A153" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="4">
+      <c r="B153" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="4">
+      <c r="C153" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="4">
+      <c r="D153" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="4">
+      <c r="E153" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="4">
+      <c r="F153" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="4">
+      <c r="G153" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="4">
+      <c r="H153" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4601,28 +4649,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="4">
+      <c r="C155" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="4">
+      <c r="D155" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="4">
+      <c r="E155" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="4">
+      <c r="F155" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="4">
+      <c r="G155" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="4">
+      <c r="H155" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="4">
+      <c r="I155" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4768,10 +4816,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="4" t="s">
+      <c r="J160" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K160" s="4" t="s">
+      <c r="K160" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4815,28 +4863,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="4">
+      <c r="A162" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="4">
+      <c r="C162" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D162" t="s" s="4">
+      <c r="D162" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="4">
+      <c r="G162" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="4">
+      <c r="H162" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4861,28 +4909,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="4">
+      <c r="C164" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="4">
+      <c r="D164" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="4">
+      <c r="I164" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5028,10 +5076,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="4" t="s">
+      <c r="J169" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K169" s="4" t="s">
+      <c r="K169" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5075,28 +5123,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="4">
+      <c r="A171" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="4">
+      <c r="B171" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="4">
+      <c r="C171" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D171" t="s" s="4">
+      <c r="D171" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="4">
+      <c r="E171" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="4">
+      <c r="F171" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="4">
+      <c r="G171" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="4">
+      <c r="H171" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5121,28 +5169,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="4">
+      <c r="B173" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="4">
+      <c r="C173" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="4">
+      <c r="D173" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="4">
+      <c r="E173" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="4">
+      <c r="F173" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="4">
+      <c r="G173" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="4">
+      <c r="H173" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="4">
+      <c r="I173" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5288,10 +5336,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="4" t="s">
+      <c r="J178" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K178" s="4" t="s">
+      <c r="K178" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5335,28 +5383,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="4">
+      <c r="A180" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="4">
+      <c r="C180" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D180" t="s" s="4">
+      <c r="D180" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5381,28 +5429,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="4">
+      <c r="C182" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="4">
+      <c r="D182" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="4">
+      <c r="G182" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="4">
+      <c r="H182" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="4">
+      <c r="I182" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5461,10 +5509,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="4" t="s">
+      <c r="J184" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K184" s="4" t="s">
+      <c r="K184" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5508,28 +5556,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="4">
+      <c r="A186" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="4">
+      <c r="C186" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D186" t="s" s="4">
+      <c r="D186" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5554,28 +5602,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="4">
+      <c r="B188" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="4">
+      <c r="C188" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="4">
+      <c r="D188" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="4">
+      <c r="E188" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="4">
+      <c r="F188" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="4">
+      <c r="G188" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="4">
+      <c r="H188" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="4">
+      <c r="I188" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5634,10 +5682,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="4" t="s">
+      <c r="J190" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K190" s="4" t="s">
+      <c r="K190" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5681,28 +5729,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="4">
+      <c r="A192" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="4">
+      <c r="C192" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D192" t="s" s="4">
+      <c r="D192" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5727,28 +5775,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="4">
+      <c r="B194" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="4">
+      <c r="C194" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="4">
+      <c r="D194" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="4">
+      <c r="E194" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="4">
+      <c r="F194" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="4">
+      <c r="G194" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="4">
+      <c r="H194" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="4">
+      <c r="I194" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5807,10 +5855,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="4" t="s">
+      <c r="J196" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="4" t="s">
+      <c r="K196" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4296" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5370" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -653,10 +671,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -700,28 +718,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="12">
+      <c r="D18" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -746,28 +764,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="12">
+      <c r="I20" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1058,10 +1076,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1105,28 +1123,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="12">
+      <c r="A32" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="12">
+      <c r="B32" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="12">
+      <c r="C32" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D32" t="s" s="12">
+      <c r="D32" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F32" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1151,28 +1169,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="12">
+      <c r="C34" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="12">
+      <c r="D34" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="12">
+      <c r="I34" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1521,10 +1539,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="12" t="s">
+      <c r="K46" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1568,28 +1586,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="12">
+      <c r="A48" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="12">
+      <c r="B48" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="12">
+      <c r="C48" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="12">
+      <c r="D48" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="12">
+      <c r="E48" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="12">
+      <c r="F48" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="12">
+      <c r="G48" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="12">
+      <c r="H48" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1614,28 +1632,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="12">
+      <c r="C50" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="12">
+      <c r="D50" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="12">
+      <c r="I50" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1897,10 +1915,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="12" t="s">
+      <c r="K59" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1944,28 +1962,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="12">
+      <c r="A61" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="12">
+      <c r="C61" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="12">
+      <c r="D61" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1990,28 +2008,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="12">
+      <c r="B63" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="12">
+      <c r="C63" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="12">
+      <c r="D63" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="12">
+      <c r="F63" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="12">
+      <c r="G63" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="12">
+      <c r="I63" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2389,10 +2407,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="12" t="s">
+      <c r="J76" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="12" t="s">
+      <c r="K76" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2436,28 +2454,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="12">
+      <c r="A78" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="12">
+      <c r="C78" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D78" t="s" s="12">
+      <c r="D78" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="12">
+      <c r="E78" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="12">
+      <c r="F78" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="12">
+      <c r="G78" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2482,28 +2500,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="12">
+      <c r="B80" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="12">
+      <c r="C80" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="12">
+      <c r="D80" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="12">
+      <c r="E80" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="12">
+      <c r="F80" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="12">
+      <c r="G80" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="12">
+      <c r="H80" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="12">
+      <c r="I80" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2707,10 +2725,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="12" t="s">
+      <c r="J87" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="12" t="s">
+      <c r="K87" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2754,28 +2772,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="12">
+      <c r="A89" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="12">
+      <c r="C89" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="12">
+      <c r="D89" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2800,28 +2818,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="12">
+      <c r="B91" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="12">
+      <c r="C91" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="12">
+      <c r="D91" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="12">
+      <c r="E91" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="12">
+      <c r="F91" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="12">
+      <c r="G91" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="12">
+      <c r="H91" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="12">
+      <c r="I91" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2967,10 +2985,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="12" t="s">
+      <c r="J96" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="12" t="s">
+      <c r="K96" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -3014,28 +3032,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="12">
+      <c r="A98" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="12">
+      <c r="D98" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="12">
+      <c r="E98" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="12">
+      <c r="F98" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="12">
+      <c r="G98" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3060,28 +3078,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="12">
+      <c r="B100" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="12">
+      <c r="C100" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="12">
+      <c r="D100" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="12">
+      <c r="E100" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="12">
+      <c r="F100" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="12">
+      <c r="G100" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="12">
+      <c r="H100" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="12">
+      <c r="I100" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3227,10 +3245,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="12" t="s">
+      <c r="J105" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="12" t="s">
+      <c r="K105" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3274,28 +3292,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="12">
+      <c r="A107" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="12">
+      <c r="C107" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="12">
+      <c r="D107" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="12">
+      <c r="E107" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="12">
+      <c r="F107" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="12">
+      <c r="G107" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="12">
+      <c r="H107" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3320,28 +3338,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="12">
+      <c r="B109" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="12">
+      <c r="C109" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="12">
+      <c r="D109" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="12">
+      <c r="E109" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="12">
+      <c r="F109" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="12">
+      <c r="G109" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="12">
+      <c r="H109" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="12">
+      <c r="I109" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3487,10 +3505,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="12" t="s">
+      <c r="J114" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K114" s="12" t="s">
+      <c r="K114" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3534,28 +3552,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="12">
+      <c r="A116" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="12">
+      <c r="C116" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D116" t="s" s="12">
+      <c r="D116" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="12">
+      <c r="F116" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3580,28 +3598,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="12">
+      <c r="B118" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="12">
+      <c r="C118" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="12">
+      <c r="D118" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="12">
+      <c r="E118" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="12">
+      <c r="F118" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="12">
+      <c r="G118" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="12">
+      <c r="H118" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="12">
+      <c r="I118" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3747,10 +3765,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="12" t="s">
+      <c r="J123" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="12" t="s">
+      <c r="K123" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3794,28 +3812,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="12">
+      <c r="A125" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="12">
+      <c r="B125" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="12">
+      <c r="C125" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="12">
+      <c r="D125" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="12">
+      <c r="E125" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="12">
+      <c r="F125" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="12">
+      <c r="G125" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="12">
+      <c r="H125" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3840,28 +3858,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="12">
+      <c r="B127" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="12">
+      <c r="C127" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="12">
+      <c r="D127" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="12">
+      <c r="E127" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="12">
+      <c r="F127" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="12">
+      <c r="G127" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="12">
+      <c r="H127" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="12">
+      <c r="I127" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4036,10 +4054,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="12" t="s">
+      <c r="J133" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="12" t="s">
+      <c r="K133" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4083,28 +4101,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="12">
+      <c r="A135" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="12">
+      <c r="C135" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="12">
+      <c r="D135" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F135" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="12">
+      <c r="H135" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4129,28 +4147,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="12">
+      <c r="B137" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="12">
+      <c r="C137" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="12">
+      <c r="D137" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="12">
+      <c r="E137" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="12">
+      <c r="F137" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="12">
+      <c r="G137" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="12">
+      <c r="H137" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="12">
+      <c r="I137" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4296,10 +4314,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="12" t="s">
+      <c r="J142" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="12" t="s">
+      <c r="K142" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4343,28 +4361,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="12">
+      <c r="A144" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="12">
+      <c r="B144" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="12">
+      <c r="C144" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="12">
+      <c r="D144" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="12">
+      <c r="E144" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="12">
+      <c r="F144" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="12">
+      <c r="G144" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="12">
+      <c r="H144" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4389,28 +4407,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="12">
+      <c r="C146" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="12">
+      <c r="D146" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="12">
+      <c r="I146" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4556,10 +4574,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="12" t="s">
+      <c r="J151" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="12" t="s">
+      <c r="K151" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4603,28 +4621,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="12">
+      <c r="A153" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="12">
+      <c r="B153" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="12">
+      <c r="C153" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="12">
+      <c r="D153" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="12">
+      <c r="E153" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="12">
+      <c r="F153" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="12">
+      <c r="G153" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="12">
+      <c r="H153" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4649,28 +4667,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="12">
+      <c r="B155" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="12">
+      <c r="C155" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="12">
+      <c r="D155" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="12">
+      <c r="E155" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="12">
+      <c r="F155" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="12">
+      <c r="G155" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="12">
+      <c r="H155" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="12">
+      <c r="I155" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4816,10 +4834,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="12" t="s">
+      <c r="J160" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K160" s="12" t="s">
+      <c r="K160" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4863,28 +4881,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="12">
+      <c r="A162" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="12">
+      <c r="C162" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D162" t="s" s="12">
+      <c r="D162" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="12">
+      <c r="E162" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="12">
+      <c r="F162" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="12">
+      <c r="G162" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="12">
+      <c r="H162" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4909,28 +4927,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="12">
+      <c r="C164" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="12">
+      <c r="D164" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="12">
+      <c r="I164" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5076,10 +5094,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="12" t="s">
+      <c r="J169" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K169" s="12" t="s">
+      <c r="K169" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5123,28 +5141,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="12">
+      <c r="A171" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="12">
+      <c r="B171" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="12">
+      <c r="C171" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D171" t="s" s="12">
+      <c r="D171" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="12">
+      <c r="E171" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="12">
+      <c r="F171" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="12">
+      <c r="G171" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="12">
+      <c r="H171" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5169,28 +5187,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="12">
+      <c r="B173" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="12">
+      <c r="C173" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="12">
+      <c r="D173" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="12">
+      <c r="E173" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="12">
+      <c r="F173" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="12">
+      <c r="G173" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="12">
+      <c r="H173" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="12">
+      <c r="I173" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5336,10 +5354,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="12" t="s">
+      <c r="J178" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K178" s="12" t="s">
+      <c r="K178" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5383,28 +5401,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="12">
+      <c r="A180" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="12">
+      <c r="C180" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="D180" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5429,28 +5447,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="12">
+      <c r="B182" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="12">
+      <c r="C182" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="12">
+      <c r="D182" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="12">
+      <c r="E182" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="12">
+      <c r="F182" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="12">
+      <c r="G182" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="12">
+      <c r="H182" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="12">
+      <c r="I182" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5509,10 +5527,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="12" t="s">
+      <c r="J184" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K184" s="12" t="s">
+      <c r="K184" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5556,28 +5574,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="12">
+      <c r="A186" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="12">
+      <c r="C186" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D186" t="s" s="12">
+      <c r="D186" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5602,28 +5620,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="12">
+      <c r="B188" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="12">
+      <c r="C188" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="12">
+      <c r="D188" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="12">
+      <c r="E188" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="12">
+      <c r="F188" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="12">
+      <c r="G188" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="12">
+      <c r="H188" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="12">
+      <c r="I188" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5682,10 +5700,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="12" t="s">
+      <c r="J190" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K190" s="12" t="s">
+      <c r="K190" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5729,28 +5747,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="12">
+      <c r="A192" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="12">
+      <c r="C192" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D192" t="s" s="12">
+      <c r="D192" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5775,28 +5793,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="12">
+      <c r="B194" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="12">
+      <c r="C194" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="12">
+      <c r="D194" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="12">
+      <c r="E194" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="12">
+      <c r="F194" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="12">
+      <c r="G194" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="12">
+      <c r="H194" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="12">
+      <c r="I194" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5855,10 +5873,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="12" t="s">
+      <c r="J196" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="12" t="s">
+      <c r="K196" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
